--- a/Model building/Estimates.xlsx
+++ b/Model building/Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA08A8-DF32-487A-8582-2BA20FBB14C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A91DF16-90BC-4B6F-9DF3-9D28CF32E66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83A4E78A-B24A-41D8-B61E-A01726427E95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Model 2</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Chi-sq Test of Model Fit</t>
   </si>
   <si>
-    <t>Community</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>Log-likelihood ( x 10^6)</t>
+  </si>
+  <si>
+    <t>Fanancial Socialisation</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -183,18 +189,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,26 +256,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,523 +600,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ABB570-32AB-43B5-8118-8EE7DB543F96}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="13"/>
+      <c r="F1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>481.16800000000001</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>10.497999999999999</v>
       </c>
-      <c r="F4" s="16">
-        <v>376.21499999999997</v>
-      </c>
-      <c r="G4" s="16">
-        <v>13.473000000000001</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="F4" s="15">
+        <v>28.463999999999999</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3.6970000000000001</v>
+      </c>
+      <c r="I4" s="15">
         <v>27.797000000000001</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>4.6059999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F7" s="15">
+        <v>-3.2530000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="15">
+        <v>-9.8079999999999998</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1.272</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="15">
+        <v>0.66</v>
+      </c>
+      <c r="G10" s="15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="15">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F12" s="15">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.56399999999999995</v>
+      </c>
       <c r="I12" s="18">
         <v>0.3</v>
       </c>
       <c r="J12" s="18">
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="16">
+      <c r="F13" s="15">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1.252</v>
+      </c>
+      <c r="I13" s="18">
         <v>7.2960000000000003</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="18">
         <v>1.397</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="19">
+      <c r="F14" s="15">
+        <v>-2.7069999999999999</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3.762</v>
+      </c>
+      <c r="I14" s="20">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="20">
         <v>3.6469999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="19">
+      <c r="F15" s="15">
+        <v>-1.1619999999999999</v>
+      </c>
+      <c r="G15" s="15">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="I15" s="20">
         <v>-1.254</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="20">
         <v>2.169</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="16">
+      <c r="F16" s="15">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I16" s="18">
         <v>0.57399999999999995</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="18">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="16">
+      <c r="F17" s="15">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="18">
         <v>0.38400000000000001</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="16">
-        <v>151.905</v>
-      </c>
-      <c r="G26" s="16">
-        <v>21.419</v>
-      </c>
-      <c r="I26" s="16">
+      <c r="F26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="I26" s="15">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>35</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>35</v>
+      <c r="F28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>6034.8040000000001</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>317.11500000000001</v>
       </c>
-      <c r="F30" s="16">
-        <v>6004.7179999999998</v>
-      </c>
-      <c r="G30" s="16">
-        <v>313.32400000000001</v>
-      </c>
-      <c r="I30" s="16">
+      <c r="F30" s="15">
+        <v>1692.9670000000001</v>
+      </c>
+      <c r="G30" s="15">
+        <v>43.115000000000002</v>
+      </c>
+      <c r="I30" s="15">
         <v>1645.1880000000001</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>52.948</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>2775.1</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>328.70600000000002</v>
       </c>
-      <c r="F31" s="16">
-        <v>2882.72</v>
-      </c>
-      <c r="G31" s="16">
-        <v>356.53699999999998</v>
-      </c>
-      <c r="I31" s="16">
+      <c r="F31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="I31" s="15">
         <v>56.887999999999998</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <v>12.273999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>5163.0619999999999</v>
       </c>
-      <c r="F32" s="16">
-        <v>5158.3500000000004</v>
-      </c>
-      <c r="I32" s="16">
+      <c r="F32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="I32" s="15">
         <v>110.96599999999999</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <v>36.570999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="16">
+        <v>38</v>
+      </c>
+      <c r="C35" s="15">
         <v>-0.625</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>189.95699999999999</v>
       </c>
-      <c r="F35" s="16">
-        <v>-0.625</v>
-      </c>
-      <c r="G35" s="16">
-        <v>190.946</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="F35" s="15">
+        <v>-1.5880000000000001</v>
+      </c>
+      <c r="G35" s="15">
+        <v>938.87900000000002</v>
+      </c>
+      <c r="I35" s="15">
         <v>-0.53</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>373.04</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="16">
+        <v>36</v>
+      </c>
+      <c r="C36" s="15">
         <v>1.25</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>379.91399999999999</v>
       </c>
-      <c r="F36" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="G36" s="16">
-        <v>381.89299999999997</v>
-      </c>
-      <c r="I36" s="16">
+      <c r="F36" s="15">
+        <v>3.177</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1877.758</v>
+      </c>
+      <c r="I36" s="15">
         <v>1.056</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>746.08100000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="16">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15">
         <v>1.25</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>379.91399999999999</v>
       </c>
-      <c r="F37" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="G37" s="16">
-        <v>381.89299999999997</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="F37" s="15">
+        <v>3.177</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1877.758</v>
+      </c>
+      <c r="I37" s="15">
         <v>1.056</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="15">
         <v>746.08100000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="16">
+        <v>37</v>
+      </c>
+      <c r="C38" s="15">
         <v>1.25</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <v>379.91399999999999</v>
       </c>
-      <c r="F38" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="G38" s="16">
-        <v>381.89299999999997</v>
-      </c>
-      <c r="I38" s="16">
+      <c r="F38" s="15">
+        <v>3.177</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1877.758</v>
+      </c>
+      <c r="I38" s="15">
         <v>1.056</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="15">
         <v>746.08100000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="16">
-        <v>25</v>
-      </c>
-      <c r="G39" s="16">
-        <v>3.5169999999999999</v>
-      </c>
-      <c r="I39" s="16">
+      <c r="F39" s="15">
+        <v>7589.6040000000003</v>
+      </c>
+      <c r="G39" s="15">
+        <v>52.963999999999999</v>
+      </c>
+      <c r="I39" s="15">
         <v>0.54800000000000004</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="15">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="16">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F41" s="15">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F42" s="15">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G42" s="15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G43" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F43" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="16">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G44" s="16">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="17">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G45" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="F45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="22"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="17">
+      <c r="I45" s="16">
         <v>0.08</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="16">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model building/Estimates.xlsx
+++ b/Model building/Estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A91DF16-90BC-4B6F-9DF3-9D28CF32E66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8965B65-4CD7-46A6-9F67-23891573A86E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83A4E78A-B24A-41D8-B61E-A01726427E95}"/>
+    <workbookView xWindow="28680" yWindow="-12375" windowWidth="18240" windowHeight="23640" xr2:uid="{83A4E78A-B24A-41D8-B61E-A01726427E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Model 2</t>
   </si>
@@ -45,45 +45,15 @@
     <t>Safety</t>
   </si>
   <si>
-    <t>Familiarity</t>
-  </si>
-  <si>
-    <t>Confidence</t>
-  </si>
-  <si>
     <t>SES</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>1st Generation Migrant</t>
-  </si>
-  <si>
-    <t>2nd Generation Migrant</t>
-  </si>
-  <si>
     <t>School-level Predictors</t>
   </si>
   <si>
-    <t>Resource shortage</t>
-  </si>
-  <si>
-    <t>Student-teacher ratio</t>
-  </si>
-  <si>
     <t>Country-level Predictors</t>
   </si>
   <si>
-    <t>Financial Knowledge Index</t>
-  </si>
-  <si>
-    <t>Numeracy</t>
-  </si>
-  <si>
-    <t>Literacy</t>
-  </si>
-  <si>
     <t>FIXED EFFECTS</t>
   </si>
   <si>
@@ -123,34 +93,85 @@
     <t>Chi-sq Test of Model Fit</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
     <t>S.E.</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>BIC ( x 10^6)</t>
-  </si>
-  <si>
-    <t>AIC ( x 10^6)</t>
-  </si>
-  <si>
-    <t>SABIC ( x 10^6)</t>
-  </si>
-  <si>
-    <t>Log-likelihood ( x 10^6)</t>
-  </si>
-  <si>
-    <t>Fanancial Socialisation</t>
-  </si>
-  <si>
     <t>Model 1</t>
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Coef.</t>
+  </si>
+  <si>
+    <t>Academic [dir]</t>
+  </si>
+  <si>
+    <t>Safety [dir]</t>
+  </si>
+  <si>
+    <t>---Academic [ind]</t>
+  </si>
+  <si>
+    <t>---Safety [ind]</t>
+  </si>
+  <si>
+    <t>Fin Soc</t>
+  </si>
+  <si>
+    <t>ST Ratio</t>
+  </si>
+  <si>
+    <t>FLFAMILY [dir]</t>
+  </si>
+  <si>
+    <t>FCFMLRTY</t>
+  </si>
+  <si>
+    <t>FLCONFIN</t>
+  </si>
+  <si>
+    <t>---FLFAMILY [ind]</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>IMMI1GEN</t>
+  </si>
+  <si>
+    <t>IMMI2GEN</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>FKI</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>SABIC</t>
   </si>
 </sst>
 </file>
@@ -160,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +205,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,22 +297,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,68 +638,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ABB570-32AB-43B5-8118-8EE7DB543F96}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="14"/>
@@ -673,7 +711,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -697,356 +735,402 @@
         <v>4.6059999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15">
+        <v>-3.2530000000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="15">
+        <v>-9.8079999999999998</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2.5110000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1.272</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.66</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="15">
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1.252</v>
+      </c>
+      <c r="I15" s="17">
+        <v>7.2960000000000003</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1.397</v>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-2.7069999999999999</v>
+      </c>
+      <c r="G16" s="15">
+        <v>3.762</v>
+      </c>
+      <c r="I16" s="19">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3.6469999999999998</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-1.1619999999999999</v>
+      </c>
+      <c r="G17" s="15">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="I17" s="19">
+        <v>-1.254</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2.169</v>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
-        <v>-3.2530000000000001</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1.252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="F21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="15">
-        <v>-9.8079999999999998</v>
-      </c>
-      <c r="G8" s="15">
-        <v>2.5110000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1.272</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.66</v>
-      </c>
-      <c r="G10" s="15">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="15">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="F22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="15">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="15">
-        <v>4.1269999999999998</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.252</v>
-      </c>
-      <c r="I13" s="18">
-        <v>7.2960000000000003</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1.397</v>
-      </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="I27" s="15">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J27" s="15">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="15">
-        <v>-2.7069999999999999</v>
-      </c>
-      <c r="G14" s="15">
-        <v>3.762</v>
-      </c>
-      <c r="I14" s="20">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="J14" s="20">
-        <v>3.6469999999999998</v>
-      </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="15">
+        <v>6034.8040000000001</v>
+      </c>
+      <c r="D29" s="15">
+        <v>317.11500000000001</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1692.9670000000001</v>
+      </c>
+      <c r="G29" s="15">
+        <v>43.115000000000002</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1645.1880000000001</v>
+      </c>
+      <c r="J29" s="15">
+        <v>52.948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="15">
-        <v>-1.1619999999999999</v>
-      </c>
-      <c r="G15" s="15">
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="I15" s="20">
-        <v>-1.254</v>
-      </c>
-      <c r="J15" s="20">
-        <v>2.169</v>
-      </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I16" s="18">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="J16" s="18">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C30" s="15">
+        <v>2775.1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>328.70600000000002</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="I30" s="15">
+        <v>56.887999999999998</v>
+      </c>
+      <c r="J30" s="15">
+        <v>12.273999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="I26" s="15">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="J26" s="15">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15">
-        <v>6034.8040000000001</v>
-      </c>
-      <c r="D30" s="15">
-        <v>317.11500000000001</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1692.9670000000001</v>
-      </c>
-      <c r="G30" s="15">
-        <v>43.115000000000002</v>
-      </c>
-      <c r="I30" s="15">
-        <v>1645.1880000000001</v>
-      </c>
-      <c r="J30" s="15">
-        <v>52.948</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C31" s="15">
-        <v>2775.1</v>
-      </c>
-      <c r="D31" s="15">
-        <v>328.70600000000002</v>
+        <v>5163.0619999999999</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G31" s="21"/>
       <c r="I31" s="15">
-        <v>56.887999999999998</v>
+        <v>110.96599999999999</v>
       </c>
       <c r="J31" s="15">
-        <v>12.273999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="15">
-        <v>5163.0619999999999</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="I32" s="15">
-        <v>110.96599999999999</v>
-      </c>
-      <c r="J32" s="15">
         <v>36.570999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
+      <c r="E32" s="7"/>
+      <c r="F32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="15">
+        <v>-0.625</v>
+      </c>
+      <c r="D34" s="15">
+        <v>189.95699999999999</v>
+      </c>
+      <c r="F34" s="15">
+        <v>-1.5880000000000001</v>
+      </c>
+      <c r="G34" s="15">
+        <v>938.87900000000002</v>
+      </c>
+      <c r="I34" s="15">
+        <v>-0.53</v>
+      </c>
+      <c r="J34" s="15">
+        <v>373.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C35" s="15">
-        <v>-0.625</v>
+        <v>1.25</v>
       </c>
       <c r="D35" s="15">
-        <v>189.95699999999999</v>
+        <v>379.91399999999999</v>
       </c>
       <c r="F35" s="15">
-        <v>-1.5880000000000001</v>
+        <v>3.177</v>
       </c>
       <c r="G35" s="15">
-        <v>938.87900000000002</v>
+        <v>1877.758</v>
       </c>
       <c r="I35" s="15">
-        <v>-0.53</v>
+        <v>1.056</v>
       </c>
       <c r="J35" s="15">
-        <v>373.04</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>746.08100000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C36" s="15">
         <v>1.25</v>
@@ -1067,10 +1151,10 @@
         <v>746.08100000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C37" s="15">
         <v>1.25</v>
@@ -1091,134 +1175,110 @@
         <v>746.08100000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="15">
-        <v>379.91399999999999</v>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F38" s="15">
-        <v>3.177</v>
+        <v>7589.6040000000003</v>
       </c>
       <c r="G38" s="15">
-        <v>1877.758</v>
+        <v>52.963999999999999</v>
       </c>
       <c r="I38" s="15">
-        <v>1.056</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J38" s="15">
-        <v>746.08100000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F39" s="15">
-        <v>7589.6040000000003</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G39" s="15">
-        <v>52.963999999999999</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F40" s="15">
-        <v>3.3000000000000002E-2</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="G40" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F41" s="15">
-        <v>0.80600000000000005</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="G41" s="15">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>27</v>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F42" s="15">
-        <v>0.74399999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G42" s="15">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="16">
+        <v>19</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="16">
         <v>0.08</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J44" s="16">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model building/Estimates.xlsx
+++ b/Model building/Estimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8965B65-4CD7-46A6-9F67-23891573A86E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0018BF8D-9E0F-4CC1-89D9-9C3FF268C9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12375" windowWidth="18240" windowHeight="23640" xr2:uid="{83A4E78A-B24A-41D8-B61E-A01726427E95}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>FIXED EFFECTS</t>
   </si>
   <si>
-    <t>RANDOM EFFECTS</t>
-  </si>
-  <si>
     <t>School-level</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>SABIC</t>
+  </si>
+  <si>
+    <t>RANDOM EFFECTS (var(error for FLIT))</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,12 +661,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="11"/>
       <c r="F1" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="11"/>
@@ -677,24 +677,24 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="15">
         <v>-3.2530000000000001</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="15">
         <v>-9.8079999999999998</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="15">
         <v>1.272</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="15">
         <v>0.66</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="15">
         <v>3.4289999999999998</v>
@@ -797,17 +797,17 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="15">
         <v>4.1269999999999998</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="15">
         <v>-2.7069999999999999</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="15">
         <v>-1.1619999999999999</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="15">
         <v>0.55400000000000005</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="15">
         <v>0.40100000000000002</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="21"/>
     </row>
@@ -937,32 +937,32 @@
         <v>5</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="21"/>
     </row>
@@ -973,10 +973,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="21"/>
       <c r="I27" s="15">
@@ -988,7 +988,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1016,7 +1016,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="15">
         <v>2775.1</v>
@@ -1025,7 +1025,7 @@
         <v>328.70600000000002</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="21"/>
       <c r="I30" s="15">
@@ -1037,13 +1037,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="15">
         <v>5163.0619999999999</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="21"/>
       <c r="I31" s="15">
@@ -1055,34 +1055,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="15">
         <v>-0.625</v>
@@ -1106,7 +1106,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="15">
         <v>1.25</v>
@@ -1130,7 +1130,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="15">
         <v>1.25</v>
@@ -1154,7 +1154,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="15">
         <v>1.25</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="15">
         <v>7589.6040000000003</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="15">
         <v>3.3000000000000002E-2</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="15">
         <v>0.80600000000000005</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="15">
         <v>0.74399999999999999</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="15">
         <v>9.5000000000000001E-2</v>
@@ -1238,23 +1238,23 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="12"/>
       <c r="F44" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="12"/>
